--- a/docs/Other stuff to keep/Player Fields and Values.xlsx
+++ b/docs/Other stuff to keep/Player Fields and Values.xlsx
@@ -5434,7 +5434,7 @@
   <dimension ref="A1:F1285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A81" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D99" sqref="D99"/>
+      <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
